--- a/crawling/sample.xlsx
+++ b/crawling/sample.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,34 +436,38 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>thisisneverthat</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>musinsastandard</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>covernat</t>
+          <t>전체상품평균가</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>평균가</t>
+          <t>thisisneverthat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38237</v>
-      </c>
-      <c r="C2" t="n">
-        <v>22854</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32744</v>
+        <v>39182</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>musinsastandard</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>22821</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>covernat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>32812</v>
       </c>
     </row>
   </sheetData>
